--- a/config_debug/by3dphb_config.xlsx
+++ b/config_debug/by3dphb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -453,7 +453,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>

--- a/config_debug/by3dphb_config.xlsx
+++ b/config_debug/by3dphb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>e_t|结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBRightItemBase_sgxxlb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,6 +753,35 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/by3dphb_config.xlsx
+++ b/config_debug/by3dphb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,7 +728,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>

--- a/config_debug/by3dphb_config.xlsx
+++ b/config_debug/by3dphb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>BY3DPHBRightItemBase_drb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_t|开启时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_t|结束时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -474,12 +482,13 @@
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,17 +501,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,16 +531,22 @@
         <v>9</v>
       </c>
       <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,13 +560,19 @@
         <v>11</v>
       </c>
       <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,16 +586,22 @@
         <v>13</v>
       </c>
       <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -582,13 +615,19 @@
         <v>16</v>
       </c>
       <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -602,13 +641,19 @@
         <v>19</v>
       </c>
       <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,13 +667,19 @@
         <v>22</v>
       </c>
       <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -642,16 +693,22 @@
         <v>25</v>
       </c>
       <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -665,12 +722,18 @@
         <v>32</v>
       </c>
       <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
